--- a/outputs-r202/test-c__Kiritimatiellae.xlsx
+++ b/outputs-r202/test-c__Kiritimatiellae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,14 +101,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,220 +142,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.1177149841790802e-13</v>
+        <v>0.071691190664099666</v>
       </c>
       <c r="C2">
-        <v>1.1177149841790802e-13</v>
+        <v>0.071691190664099666</v>
       </c>
       <c r="D2">
-        <v>1.1177149841790805e-13</v>
+        <v>0.071691190664099694</v>
       </c>
       <c r="E2">
-        <v>0.29834648703517858</v>
+        <v>0.19248282103700493</v>
       </c>
       <c r="F2">
-        <v>1.1177149841790805e-13</v>
+        <v>0.071691190664099749</v>
       </c>
       <c r="G2">
-        <v>0.6180504969670384</v>
+        <v>0.071691190664099708</v>
       </c>
       <c r="H2">
-        <v>1.1177149841790808e-13</v>
+        <v>0.071691190664099708</v>
       </c>
       <c r="I2">
-        <v>1.1177149841790808e-13</v>
+        <v>0.071691190664099708</v>
       </c>
       <c r="J2">
-        <v>7.180400527748134e-10</v>
+        <v>0.071691190921559941</v>
       </c>
       <c r="K2">
-        <v>1.1177149841790808e-13</v>
+        <v>0.071691190664099583</v>
       </c>
       <c r="L2">
-        <v>1.1177149841790808e-13</v>
+        <v>0.071691190664099555</v>
       </c>
       <c r="M2">
-        <v>0.083603015278848655</v>
+        <v>0.090605272064538195</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="G3">
-        <v>0.99999999997933109</v>
+        <v>0.99999999999916023</v>
       </c>
       <c r="H3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="J3">
-        <v>2.0446895617013692e-11</v>
+        <v>6.1776255887414249e-13</v>
       </c>
       <c r="K3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="L3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="M3">
-        <v>2.2204460492464483e-14</v>
+        <v>2.2204460492501168e-14</v>
       </c>
       <c r="N3">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.16142728659490835</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.069916049875014832</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.069916049875014832</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.069916049875014832</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.069916049875014832</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.069916049875014902</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.069916049875014902</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.069916049875014874</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.13941221465494294</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.069916049875014805</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.069916049875014985</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.069916049875014874</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.99999999999973455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.3366403334034485e-14</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.2204460492502228e-14</v>
       </c>
       <c r="N5">
         <v>6</v>
